--- a/assets/other/dummy_summary_data.xlsx
+++ b/assets/other/dummy_summary_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alpha Aces\Projects\Bank_Statemants_Automation\assets\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CD38B5-8EDB-44CC-92C9-24930B5A37A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC5C606-A545-424D-85B4-E8FA8FE06E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,15 +28,6 @@
     <t>Bank</t>
   </si>
   <si>
-    <t>Start_Date</t>
-  </si>
-  <si>
-    <t>End_Date</t>
-  </si>
-  <si>
-    <t>Pending_days</t>
-  </si>
-  <si>
     <t>Transactions</t>
   </si>
   <si>
@@ -65,6 +56,15 @@
   </si>
   <si>
     <t>John Doe</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Pending days</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,24 +459,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>45472</v>
@@ -493,10 +493,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>45657</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>45292</v>
@@ -533,10 +533,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>45536</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>45501</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>44928</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>43557</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>45640</v>

--- a/assets/other/dummy_summary_data.xlsx
+++ b/assets/other/dummy_summary_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alpha Aces\Projects\Bank_Statemants_Automation\assets\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC5C606-A545-424D-85B4-E8FA8FE06E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDF89F3-2432-46FA-BEEF-CA1046B90340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -28,9 +28,24 @@
     <t>Bank</t>
   </si>
   <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>Pending_days</t>
+  </si>
+  <si>
     <t>Transactions</t>
   </si>
   <si>
+    <t>Opening_balance</t>
+  </si>
+  <si>
+    <t>Closing_balance</t>
+  </si>
+  <si>
     <t>Axis Bank</t>
   </si>
   <si>
@@ -40,6 +55,9 @@
     <t>Bank of Baroda</t>
   </si>
   <si>
+    <t>Bank of India</t>
+  </si>
+  <si>
     <t>HDFC Bank</t>
   </si>
   <si>
@@ -56,15 +74,6 @@
   </si>
   <si>
     <t>John Doe</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Pending days</t>
   </si>
 </sst>
 </file>
@@ -436,22 +445,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,24 +461,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
         <v>45472</v>
@@ -485,18 +493,24 @@
         <v>45658</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>102557</v>
+      </c>
+      <c r="H2">
+        <v>104114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>45657</v>
@@ -505,18 +519,24 @@
         <v>45657</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>5644</v>
+      </c>
+      <c r="H3">
+        <v>7962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>45292</v>
@@ -525,110 +545,172 @@
         <v>45670</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>262</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>32004.7</v>
+      </c>
+      <c r="H4">
+        <v>79965.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="2">
+        <v>45584</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45668</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>14947.3</v>
+      </c>
+      <c r="H5">
+        <v>63340.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
         <v>45536</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>45646</v>
       </c>
-      <c r="E5">
-        <v>57</v>
-      </c>
-      <c r="F5">
+      <c r="E6">
+        <v>77</v>
+      </c>
+      <c r="F6">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="G6">
+        <v>59604.7</v>
+      </c>
+      <c r="H6">
+        <v>788442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
         <v>45501</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>45684</v>
       </c>
-      <c r="E6">
-        <v>19</v>
-      </c>
-      <c r="F6">
+      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="F7">
         <v>352</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="G7">
+        <v>55725.3</v>
+      </c>
+      <c r="H7">
+        <v>315367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
         <v>44928</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>45048</v>
       </c>
-      <c r="E7">
-        <v>655</v>
-      </c>
-      <c r="F7">
+      <c r="E8">
+        <v>675</v>
+      </c>
+      <c r="F8">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="G8">
+        <v>409.63</v>
+      </c>
+      <c r="H8">
+        <v>259463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
         <v>43557</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>44646</v>
       </c>
-      <c r="E8">
-        <v>1057</v>
-      </c>
-      <c r="F8">
+      <c r="E9">
+        <v>1077</v>
+      </c>
+      <c r="F9">
         <v>1044</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="G9">
+        <v>206578</v>
+      </c>
+      <c r="H9">
+        <v>545257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
         <v>45640</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>45670</v>
       </c>
-      <c r="E9">
-        <v>33</v>
-      </c>
-      <c r="F9">
+      <c r="E10">
+        <v>53</v>
+      </c>
+      <c r="F10">
         <v>99</v>
+      </c>
+      <c r="G10">
+        <v>15071.6</v>
+      </c>
+      <c r="H10">
+        <v>343188</v>
       </c>
     </row>
   </sheetData>
